--- a/backend/backend/media/outputs/results.xlsx
+++ b/backend/backend/media/outputs/results.xlsx
@@ -480,7 +480,7 @@
         <v>500000</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003083944320678711</v>
+        <v>0.002737998962402344</v>
       </c>
     </row>
   </sheetData>

--- a/backend/backend/media/outputs/results.xlsx
+++ b/backend/backend/media/outputs/results.xlsx
@@ -480,7 +480,7 @@
         <v>500000</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002737998962402344</v>
+        <v>0.002692937850952148</v>
       </c>
     </row>
   </sheetData>
